--- a/graph.xlsx
+++ b/graph.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="graph" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Parent</t>
   </si>
@@ -22,46 +22,43 @@
     <t>Child</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Refinery</t>
-  </si>
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>Exxon</t>
-  </si>
-  <si>
-    <t>Shell</t>
-  </si>
-  <si>
-    <t>Chevron</t>
-  </si>
-  <si>
-    <t>Lubricant</t>
-  </si>
-  <si>
-    <t>Motor Vehicles</t>
-  </si>
-  <si>
-    <t>Rotating Machinery</t>
-  </si>
-  <si>
-    <t>Industrial Use</t>
-  </si>
-  <si>
-    <t>Machining</t>
-  </si>
-  <si>
     <t>Parent Shape</t>
   </si>
   <si>
     <t>Child Shape</t>
   </si>
   <si>
-    <t>box</t>
+    <t>Parent Color</t>
+  </si>
+  <si>
+    <t>Child Color</t>
+  </si>
+  <si>
+    <t>Domestic Production</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>Distribution Network</t>
+  </si>
+  <si>
+    <t>Retailers</t>
+  </si>
+  <si>
+    <t>Fast-fill</t>
+  </si>
+  <si>
+    <t>Slow-fill</t>
+  </si>
+  <si>
+    <t>Consumers</t>
+  </si>
+  <si>
+    <t>High-pressure Storage Tank</t>
+  </si>
+  <si>
+    <t>Imports (Gas / LNG)</t>
   </si>
 </sst>
 </file>
@@ -409,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,9 +418,11 @@
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,88 +430,91 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
